--- a/biology/Zoologie/Euptychia_hannemanni/Euptychia_hannemanni.xlsx
+++ b/biology/Zoologie/Euptychia_hannemanni/Euptychia_hannemanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptychia hannemanni est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia hannemanni a été décrit par Walter Forster en 1964[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia hannemanni a été décrit par Walter Forster en 1964.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus[2].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus.
 </t>
         </is>
       </c>
@@ -574,11 +593,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia hannemanni est présent en Colombie[1].
-Protection
-Pas de statut de protection particulier
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia hannemanni est présent en Colombie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euptychia_hannemanni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_hannemanni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia hannemanni, sur Wikimedia CommonsEuptychia hannemanni, sur Wikispecies
 </t>
